--- a/data/trans_bre/P1804_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1804_2016_2023-Edad-trans_bre.xlsx
@@ -609,13 +609,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.886338289728483</v>
+        <v>-1.692115818883793</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.261681687288995</v>
+        <v>3.47903288018946</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2310964203291815</v>
+        <v>-0.2153855346741219</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
     </row>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.704722251204289</v>
+        <v>5.720697300494723</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.02723403439775</v>
+        <v>13.16851939029549</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1.129097449099339</v>
+        <v>1.174896693426429</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
     </row>
@@ -652,13 +652,13 @@
         <v>5.661533148784462</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.357431743031548</v>
+        <v>3.357431743031547</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1.183144115909676</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.4340852377161243</v>
+        <v>0.4340852377161241</v>
       </c>
     </row>
     <row r="8">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.506580683388206</v>
+        <v>2.450998493101095</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.671731681639213</v>
+        <v>-1.755224779160505</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4461296771511002</v>
+        <v>0.3804105537088777</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1674655454718417</v>
+        <v>-0.176743889032355</v>
       </c>
     </row>
     <row r="9">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.716998950943305</v>
+        <v>8.807826711607095</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.789617131328058</v>
+        <v>7.963554356825295</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.413420815382009</v>
+        <v>2.388281839871854</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.579788449813914</v>
+        <v>1.757425002891291</v>
       </c>
     </row>
     <row r="10">
@@ -716,13 +716,13 @@
         <v>5.144356305007607</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.270354228944513</v>
+        <v>3.270354228944514</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1.332937567583003</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.6939083154019269</v>
+        <v>0.6939083154019272</v>
       </c>
     </row>
     <row r="11">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.367983042021506</v>
+        <v>2.523852459375755</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2158381324409579</v>
+        <v>0.566928289936405</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.417993277330142</v>
+        <v>0.4559634793495059</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.01362952879140605</v>
+        <v>0.07309359666598933</v>
       </c>
     </row>
     <row r="12">
@@ -753,16 +753,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.820120519962229</v>
+        <v>7.830942570033958</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.965155083348746</v>
+        <v>5.942333413967154</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>2.612169845736223</v>
+        <v>2.68535105986283</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.801301699110682</v>
+        <v>1.849885328287358</v>
       </c>
     </row>
     <row r="13">
@@ -780,13 +780,13 @@
         <v>1.051409289918241</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3624546235541176</v>
+        <v>0.362454623554119</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.2030526527762389</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.05153166515157663</v>
+        <v>0.05153166515157684</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.604892580053181</v>
+        <v>-1.520566331176885</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.647335525872423</v>
+        <v>-2.373148462231284</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2486676142452935</v>
+        <v>-0.2507915985428882</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.287805554986773</v>
+        <v>-0.2758617007186465</v>
       </c>
     </row>
     <row r="15">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.67285024646775</v>
+        <v>3.653882872606272</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.040054716488611</v>
+        <v>2.929454288207274</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.912423660533295</v>
+        <v>0.921886175010357</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6029976622602005</v>
+        <v>0.5786576861215059</v>
       </c>
     </row>
     <row r="16">
@@ -844,13 +844,13 @@
         <v>2.83633469698859</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.254119438859563</v>
+        <v>1.254119438859566</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.356473692949986</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.174227887732047</v>
+        <v>0.1742278877320474</v>
       </c>
     </row>
     <row r="17">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9951165603965768</v>
+        <v>-0.8422267883803286</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.402130248856403</v>
+        <v>-1.446519225167929</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.1071727067880272</v>
+        <v>-0.09233986848254171</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1655186157138007</v>
+        <v>-0.1687154218849978</v>
       </c>
     </row>
     <row r="18">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.814368324083993</v>
+        <v>7.175649671435743</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.966172713760432</v>
+        <v>3.974082379324061</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1.087655421206057</v>
+        <v>1.155566814914312</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.7109899434580794</v>
+        <v>0.7102868989744118</v>
       </c>
     </row>
     <row r="19">
@@ -908,13 +908,13 @@
         <v>0.3742903828153565</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-0.03682644002030444</v>
+        <v>-0.03682644002030722</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.03357796507661748</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.004480405258426604</v>
+        <v>-0.004480405258426941</v>
       </c>
     </row>
     <row r="20">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.356769095004121</v>
+        <v>-4.274031602214671</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.864439809262086</v>
+        <v>-3.125047489086778</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3328428193419368</v>
+        <v>-0.3180986258392965</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2908624128071797</v>
+        <v>-0.30502880838624</v>
       </c>
     </row>
     <row r="21">
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.960575400673738</v>
+        <v>5.493275222058013</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.779602642413499</v>
+        <v>2.937303953081329</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5885336604718143</v>
+        <v>0.6651137280640094</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4211620048079566</v>
+        <v>0.4546208303148455</v>
       </c>
     </row>
     <row r="22">
@@ -989,16 +989,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8708965299332473</v>
+        <v>1.237511949938656</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.612783965167237</v>
+        <v>-1.35969795331969</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.0674765869764343</v>
+        <v>0.07438524401290636</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1776218971720312</v>
+        <v>-0.1492237353058112</v>
       </c>
     </row>
     <row r="24">
@@ -1009,16 +1009,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.09361779610649</v>
+        <v>12.06615719162643</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.594637088082319</v>
+        <v>4.542946691661559</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>1.75979819930606</v>
+        <v>1.792282639286856</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.8832309118924579</v>
+        <v>0.8975184576242607</v>
       </c>
     </row>
     <row r="25">
@@ -1036,13 +1036,13 @@
         <v>3.632755820163215</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>2.338949368482993</v>
+        <v>2.338949368482994</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.577044948382943</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.3780510255299203</v>
+        <v>0.3780510255299206</v>
       </c>
     </row>
     <row r="26">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.360596873602654</v>
+        <v>2.169968653069959</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.009312888989665</v>
+        <v>1.082597458688649</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3210456711560931</v>
+        <v>0.3219667566001869</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1511259074045423</v>
+        <v>0.1474890530914927</v>
       </c>
     </row>
     <row r="27">
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.845197745025372</v>
+        <v>4.990007700283179</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.552627794391635</v>
+        <v>3.582702401123536</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8399033454895636</v>
+        <v>0.8852818008788785</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6554439327692426</v>
+        <v>0.6699329628820397</v>
       </c>
     </row>
     <row r="28">
